--- a/biology/Zoologie/Chlorophorus_trifasciatus/Chlorophorus_trifasciatus.xlsx
+++ b/biology/Zoologie/Chlorophorus_trifasciatus/Chlorophorus_trifasciatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorophorus trifasciatus est une espèce d'insectes coléoptères de la famille des Cerambycidae, de la sous-famille des Cerambycinae, de la tribu des Clytini et du genre Chlorophorus.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago mesure entre 6 et 9 mm. Corps noir avec une pubescence blanchâtre, parfois rosée sur les élytres. Les antennes et les pattes rouges. Pronotum rouge à noir, avec un pubescence blanchâtre qui manque sur une bande transversale médiane. Élytres avec quatre bandes transversales pubescentes, la première n'atteignant pas l'épaule. Le mâle a les antennes plus longues (milieu des élytres) que la femelle (tiers supérieur de l'élytre).
 			Accouplement - Fronton
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se nourrissent de Coquesigrue (Ononis natrix).
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 Europe méridionale, Afrique du Nord.
@@ -607,12 +625,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Chlorophorus trifasciatus a été décrite par le naturaliste danois Johan Christian Fabricius en 1781[1], sous le nom initial de Callidium trifasciatum.
-La localité type est le Portugal.
-Synonymie
-Callidium trifasciatum Fabricius, 1781
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Chlorophorus trifasciatus a été décrite par le naturaliste danois Johan Christian Fabricius en 1781, sous le nom initial de Callidium trifasciatum.
+La localité type est le Portugal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlorophorus_trifasciatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorophorus_trifasciatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Callidium trifasciatum Fabricius, 1781
 Chlorophorus portugallus Gmelin, 1790
 Chlorophorus aegyptiacus Ganglbauer, 1882</t>
         </is>
